--- a/Result_loss.xlsx
+++ b/Result_loss.xlsx
@@ -14,7 +14,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <x:si>
+    <x:t>ClientName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IsBankrupt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InvoiceID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InvoiceValue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unit&amp;Products Inc.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TRUE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total Loss:5885</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Travels Print</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Teamatix</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Epiloo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Agitude</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cryptomba</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,7 +405,389 @@
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData/>
+  <x:sheetData>
+    <x:row r="1" spans="1:8">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8">
+      <x:c r="A2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
+      <x:c r="A3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8">
+      <x:c r="A4" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8">
+      <x:c r="A5" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="n">
+        <x:v>340</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8">
+      <x:c r="A6" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="n">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8">
+      <x:c r="A7" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="n">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8">
+      <x:c r="A8" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C8" s="0" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="n">
+        <x:v>210</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8">
+      <x:c r="A9" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="n">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8">
+      <x:c r="A10" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C10" s="0" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8">
+      <x:c r="A11" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C11" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="n">
+        <x:v>150</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:8">
+      <x:c r="A12" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="n">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="n">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:8">
+      <x:c r="A13" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="n">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:8">
+      <x:c r="A14" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="n">
+        <x:v>220</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:8">
+      <x:c r="A15" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="n">
+        <x:v>250</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:8">
+      <x:c r="A16" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:8">
+      <x:c r="A17" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="n">
+        <x:v>140</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:8">
+      <x:c r="A18" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="n">
+        <x:v>420</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:8">
+      <x:c r="A19" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="n">
+        <x:v>450</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:8">
+      <x:c r="A20" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="n">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:8">
+      <x:c r="A21" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="n">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:8">
+      <x:c r="A22" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="n">
+        <x:v>500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:8">
+      <x:c r="A23" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="n">
+        <x:v>250</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:8">
+      <x:c r="A24" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="n">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="n">
+        <x:v>400</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:8">
+      <x:c r="A25" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="n">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:8">
+      <x:c r="A26" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="n">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="n">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:8">
+      <x:c r="A27" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="n">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="n">
+        <x:v>500</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
